--- a/stimuli.xlsx
+++ b/stimuli.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/first-jspsych-exp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c5a0dba9691d9591/Cog Sci 2740/Projects/test-jspsych-experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F11F1AA-B606-984E-9256-227C29A5546E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{0F11F1AA-B606-984E-9256-227C29A5546E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4A84693-B869-DA4B-9813-5337C9A6A10E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="3" xr2:uid="{5EADE905-632C-A04D-8302-0650934DE955}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" activeTab="3" xr2:uid="{5EADE905-632C-A04D-8302-0650934DE955}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -2057,10 +2057,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8F7AE2-45CB-5144-B993-E6D0AB0BEE80}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F2" sqref="F2:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2069,7 +2069,7 @@
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -2102,8 +2102,12 @@
       <c r="E2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="str">
+        <f>CONCATENATE("'",B2, "'", ",")</f>
+        <v>'figureN.jpg',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -2119,8 +2123,12 @@
       <c r="E3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F25" si="0">CONCATENATE("'",B3, "'", ",")</f>
+        <v>'cakeN.jpg',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -2136,8 +2144,12 @@
       <c r="E4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>'canN.jpg',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -2153,8 +2165,12 @@
       <c r="E5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>'crackerN.jpg',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -2170,8 +2186,12 @@
       <c r="E6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>'wineglassN.jpg',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -2187,8 +2207,12 @@
       <c r="E7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>'eggN.jpg',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -2204,8 +2228,12 @@
       <c r="E8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>'eggflanS.jpg',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -2221,8 +2249,12 @@
       <c r="E9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>'blackberryS.jpg',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -2238,8 +2270,12 @@
       <c r="E10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>'glassesS.jpg',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -2255,8 +2291,12 @@
       <c r="E11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>'hatS.jpg',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -2272,8 +2312,12 @@
       <c r="E12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>'icecreamS.jpg',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -2289,8 +2333,12 @@
       <c r="E13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>'iPadS.jpg',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -2306,8 +2354,12 @@
       <c r="E14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>'iphoneN.png',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -2323,8 +2375,12 @@
       <c r="E15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>'lampN.jpg',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -2340,8 +2396,12 @@
       <c r="E16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>'mirrorN.jpg',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -2357,8 +2417,12 @@
       <c r="E17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>'muffinN.jpg',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -2374,8 +2438,12 @@
       <c r="E18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>'donutN.jpg',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -2391,8 +2459,12 @@
       <c r="E19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>'tortitaN.jpg',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>101</v>
       </c>
@@ -2408,8 +2480,12 @@
       <c r="E20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>'plateS.jpg',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -2425,8 +2501,12 @@
       <c r="E21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>'strawberryS.jpg',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -2442,8 +2522,12 @@
       <c r="E22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>'sushiS.jpg',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>104</v>
       </c>
@@ -2459,8 +2543,12 @@
       <c r="E23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>'tileS.jpg',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>105</v>
       </c>
@@ -2476,8 +2564,12 @@
       <c r="E24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>'tomatoS.jpg',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -2492,6 +2584,10 @@
       </c>
       <c r="E25">
         <v>4</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>'papercupS.jpg',</v>
       </c>
     </row>
   </sheetData>
